--- a/data/stressor_response_fixed_ARTR.xlsx
+++ b/data/stressor_response_fixed_ARTR.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F66E488-F640-4ACD-8496-A4051BF55291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3A6BE1-F474-4498-8817-BEFC47D88F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2820" yWindow="12492" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="1872" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -46,8 +46,54 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{D84D2624-231E-4BBF-A5E1-720456691368}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Choose either:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>All
+Population Model
+Joe Model</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="55">
   <si>
     <t>Stressors</t>
   </si>
@@ -186,12 +232,39 @@
   <si>
     <t>sub_adult</t>
   </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>ratio?</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Population Model</t>
+  </si>
+  <si>
+    <t>Joe Model</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +285,26 @@
       <sz val="10"/>
       <color rgb="FF36424A"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -262,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
@@ -283,6 +376,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15039,11 +15140,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15056,9 +15157,10 @@
     <col min="6" max="6" width="12.44140625" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" customWidth="1"/>
     <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -15080,11 +15182,17 @@
       <c r="G1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>34</v>
       </c>
@@ -15109,8 +15217,14 @@
       <c r="H2" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -15135,8 +15249,14 @@
       <c r="H3" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -15158,8 +15278,15 @@
       <c r="G4" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H4" s="2"/>
+      <c r="I4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
@@ -15184,8 +15311,14 @@
       <c r="H5" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -15207,8 +15340,15 @@
       <c r="G6" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H6" s="2"/>
+      <c r="I6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -15230,8 +15370,15 @@
       <c r="G7" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H7" s="2"/>
+      <c r="I7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -15253,8 +15400,13 @@
       <c r="G8" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H8" s="2"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -15276,8 +15428,13 @@
       <c r="G9" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H9" s="2"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -15299,8 +15456,13 @@
       <c r="G10" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H10" s="2"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -15322,8 +15484,13 @@
       <c r="G11" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H11" s="2"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -15345,8 +15512,13 @@
       <c r="G12" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H12" s="2"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -15368,8 +15540,13 @@
       <c r="G13" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H13" s="2"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -15391,8 +15568,13 @@
       <c r="G14" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="2"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -15414,8 +15596,13 @@
       <c r="G15" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H15" s="2"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -15437,8 +15624,13 @@
       <c r="G16" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H16" s="2"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
@@ -15463,8 +15655,12 @@
       <c r="H17" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="11"/>
+      <c r="J17" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
@@ -15489,8 +15685,12 @@
       <c r="H18" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="11"/>
+      <c r="J18" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
@@ -15515,6 +15715,14 @@
       <c r="H19" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15522,6 +15730,7 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;11&amp;K000000Classification: Protected A</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -16547,7 +16756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7:E7"/>
     </sheetView>
   </sheetViews>
@@ -18508,7 +18717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
